--- a/igs/all-profiles.xlsx
+++ b/igs/all-profiles.xlsx
@@ -2579,7 +2579,7 @@
     <t>CdL_isEmergency</t>
   </si>
   <si>
-    <t>2023-01-08T17:31:16+00:00</t>
+    <t>2023-01-08T19:36:46+00:00</t>
   </si>
   <si>
     <t>complex-type</t>
